--- a/CTI.xlsx
+++ b/CTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\Subject Headings\Children's Theme Index\GitHub\CTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB52B87-6575-45E2-B0C0-C6CCC25E1D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034EF2AB-F4DF-4CF1-BD2E-3499B7775C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" activeTab="1" xr2:uid="{EFCC635C-F9A6-442E-B628-876A5964CC75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" xr2:uid="{EFCC635C-F9A6-442E-B628-876A5964CC75}"/>
   </bookViews>
   <sheets>
     <sheet name="Topical" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Form!$B$1:$G$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Topical!$A$1:$G$1377</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Topical!$A$1:$G$1378</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="3045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="3048">
   <si>
     <t>USE FOR</t>
   </si>
@@ -9165,6 +9165,15 @@
   </si>
   <si>
     <t>Plays; Pantomimes</t>
+  </si>
+  <si>
+    <t>CTItopical01380</t>
+  </si>
+  <si>
+    <t>Totalitarianism</t>
+  </si>
+  <si>
+    <t>Dictatorship; Oppressive regimes</t>
   </si>
 </sst>
 </file>
@@ -9551,11 +9560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729BB61C-91EA-4AAA-AF5F-904D4BA3CE5F}">
-  <dimension ref="A1:G1377"/>
+  <dimension ref="A1:G1378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A943" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B964" sqref="B964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21412,52 +21421,55 @@
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>2626</v>
-      </c>
-      <c r="B964" s="2" t="s">
-        <v>1112</v>
+        <v>3045</v>
+      </c>
+      <c r="B964" t="s">
+        <v>3046</v>
       </c>
       <c r="C964" t="s">
         <v>1093</v>
       </c>
+      <c r="D964" s="4" t="s">
+        <v>3047</v>
+      </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B965" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C965" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
         <v>2628</v>
       </c>
-      <c r="B966" s="1" t="s">
+      <c r="B967" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="C966" s="1"/>
-    </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A967" t="s">
-        <v>2629</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C967" t="s">
-        <v>1114</v>
-      </c>
+      <c r="C967" s="1"/>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B968" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C968" t="s">
         <v>1114</v>
@@ -21465,10 +21477,10 @@
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B969" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C969" t="s">
         <v>1114</v>
@@ -21476,10 +21488,10 @@
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B970" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C970" t="s">
         <v>1114</v>
@@ -21487,10 +21499,10 @@
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B971" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C971" t="s">
         <v>1114</v>
@@ -21498,55 +21510,55 @@
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B972" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C972" t="s">
         <v>1114</v>
       </c>
-      <c r="E972" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B973" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C973" t="s">
         <v>1114</v>
       </c>
-      <c r="D973" t="s">
-        <v>1122</v>
-      </c>
       <c r="E973" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F973" t="s">
-        <v>1124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B974" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C974" t="s">
         <v>1114</v>
       </c>
+      <c r="D974" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E974" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F974" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B975" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C975" t="s">
         <v>1114</v>
@@ -21554,10 +21566,10 @@
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B976" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C976" t="s">
         <v>1114</v>
@@ -21565,10 +21577,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B977" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C977" t="s">
         <v>1114</v>
@@ -21576,60 +21588,60 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B978" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C978" t="s">
         <v>1114</v>
       </c>
-      <c r="E978" t="s">
-        <v>1130</v>
-      </c>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B979" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C979" t="s">
         <v>1114</v>
       </c>
+      <c r="E979" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B980" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C980" t="s">
         <v>1114</v>
       </c>
-      <c r="E980" t="s">
-        <v>1132</v>
-      </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B981" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C981" t="s">
         <v>1114</v>
       </c>
+      <c r="E981" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B982" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C982" t="s">
         <v>1114</v>
@@ -21637,10 +21649,10 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B983" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C983" t="s">
         <v>1114</v>
@@ -21648,10 +21660,10 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B984" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C984" t="s">
         <v>1114</v>
@@ -21659,49 +21671,49 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B985" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C985" t="s">
         <v>1114</v>
       </c>
-      <c r="E985" t="s">
-        <v>1138</v>
-      </c>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B986" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C986" t="s">
         <v>1114</v>
       </c>
       <c r="E986" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B987" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C987" t="s">
         <v>1114</v>
       </c>
+      <c r="E987" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B988" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C988" t="s">
         <v>1114</v>
@@ -21709,10 +21721,10 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B989" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C989" t="s">
         <v>1114</v>
@@ -21720,10 +21732,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B990" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C990" t="s">
         <v>1114</v>
@@ -21731,10 +21743,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B991" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C991" t="s">
         <v>1114</v>
@@ -21742,10 +21754,10 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B992" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C992" t="s">
         <v>1114</v>
@@ -21753,10 +21765,10 @@
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B993" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C993" t="s">
         <v>1114</v>
@@ -21764,10 +21776,10 @@
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B994" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C994" t="s">
         <v>1114</v>
@@ -21775,10 +21787,10 @@
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B995" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C995" t="s">
         <v>1114</v>
@@ -21786,10 +21798,10 @@
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B996" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C996" t="s">
         <v>1114</v>
@@ -21797,10 +21809,10 @@
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B997" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C997" t="s">
         <v>1114</v>
@@ -21808,38 +21820,38 @@
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B998" t="s">
-        <v>1132</v>
+        <v>1151</v>
       </c>
       <c r="C998" t="s">
         <v>1114</v>
       </c>
-      <c r="D998" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E998" t="s">
-        <v>1130</v>
-      </c>
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B999" t="s">
-        <v>737</v>
+        <v>1132</v>
       </c>
       <c r="C999" t="s">
         <v>1114</v>
       </c>
+      <c r="D999" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E999" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1000" t="s">
-        <v>1153</v>
+        <v>737</v>
       </c>
       <c r="C1000" t="s">
         <v>1114</v>
@@ -21847,10 +21859,10 @@
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1001" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1001" t="s">
         <v>1114</v>
@@ -21858,10 +21870,10 @@
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1002" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C1002" t="s">
         <v>1114</v>
@@ -21869,60 +21881,60 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1003" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C1003" t="s">
         <v>1114</v>
       </c>
-      <c r="D1003" t="s">
-        <v>1157</v>
-      </c>
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1004" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C1004" t="s">
         <v>1114</v>
       </c>
+      <c r="D1004" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1005" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C1005" t="s">
         <v>1114</v>
       </c>
-      <c r="D1005" t="s">
-        <v>1160</v>
-      </c>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1006" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C1006" t="s">
         <v>1114</v>
       </c>
+      <c r="D1006" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1007" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C1007" t="s">
         <v>1114</v>
@@ -21930,10 +21942,10 @@
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1008" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C1008" t="s">
         <v>1114</v>
@@ -21941,10 +21953,10 @@
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1009" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1009" t="s">
         <v>1114</v>
@@ -21952,10 +21964,10 @@
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1010" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1010" t="s">
         <v>1114</v>
@@ -21963,10 +21975,10 @@
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1011" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C1011" t="s">
         <v>1114</v>
@@ -21974,130 +21986,130 @@
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1012" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C1012" t="s">
         <v>1114</v>
       </c>
-      <c r="D1012" t="s">
-        <v>1168</v>
-      </c>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1013" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C1013" t="s">
         <v>1114</v>
       </c>
       <c r="D1013" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1014" t="s">
-        <v>1123</v>
+        <v>1169</v>
       </c>
       <c r="C1014" t="s">
         <v>1114</v>
       </c>
-      <c r="E1014" t="s">
-        <v>1171</v>
+      <c r="D1014" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B1015" t="s">
-        <v>1172</v>
+        <v>1123</v>
       </c>
       <c r="C1015" t="s">
         <v>1114</v>
       </c>
+      <c r="E1015" t="s">
+        <v>1171</v>
+      </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B1016" t="s">
-        <v>1554</v>
+        <v>1172</v>
       </c>
       <c r="C1016" t="s">
         <v>1114</v>
       </c>
-      <c r="D1016" t="s">
-        <v>1173</v>
-      </c>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B1017" t="s">
-        <v>1174</v>
+        <v>1554</v>
       </c>
       <c r="C1017" t="s">
         <v>1114</v>
       </c>
+      <c r="D1017" t="s">
+        <v>1173</v>
+      </c>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B1018" t="s">
-        <v>1138</v>
+        <v>1174</v>
       </c>
       <c r="C1018" t="s">
         <v>1114</v>
       </c>
-      <c r="D1018" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E1018" t="s">
-        <v>1616</v>
-      </c>
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B1019" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C1019" t="s">
         <v>1114</v>
       </c>
       <c r="D1019" t="s">
-        <v>1176</v>
+        <v>1175</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B1020" t="s">
-        <v>1177</v>
+        <v>1140</v>
       </c>
       <c r="C1020" t="s">
         <v>1114</v>
       </c>
+      <c r="D1020" t="s">
+        <v>1176</v>
+      </c>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B1021" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C1021" t="s">
         <v>1114</v>
@@ -22105,10 +22117,10 @@
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B1022" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C1022" t="s">
         <v>1114</v>
@@ -22116,10 +22128,10 @@
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B1023" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C1023" t="s">
         <v>1114</v>
@@ -22127,10 +22139,10 @@
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B1024" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C1024" t="s">
         <v>1114</v>
@@ -22138,35 +22150,35 @@
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B1025" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C1025" t="s">
         <v>1114</v>
       </c>
-      <c r="E1025" t="s">
-        <v>1130</v>
-      </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B1026" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C1026" t="s">
         <v>1114</v>
       </c>
+      <c r="E1026" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B1027" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C1027" t="s">
         <v>1114</v>
@@ -22174,35 +22186,35 @@
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B1028" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C1028" t="s">
         <v>1114</v>
       </c>
-      <c r="D1028" t="s">
-        <v>1185</v>
-      </c>
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B1029" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C1029" t="s">
         <v>1114</v>
       </c>
+      <c r="D1029" t="s">
+        <v>1185</v>
+      </c>
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B1030" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C1030" t="s">
         <v>1114</v>
@@ -22210,10 +22222,10 @@
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B1031" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C1031" t="s">
         <v>1114</v>
@@ -22221,10 +22233,10 @@
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B1032" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C1032" t="s">
         <v>1114</v>
@@ -22232,10 +22244,10 @@
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B1033" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C1033" t="s">
         <v>1114</v>
@@ -22243,10 +22255,10 @@
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B1034" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C1034" t="s">
         <v>1114</v>
@@ -22254,80 +22266,80 @@
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B1035" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C1035" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
         <v>2698</v>
       </c>
-      <c r="B1036" s="1" t="s">
+      <c r="B1037" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="C1036" s="1"/>
-    </row>
-    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1037" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F1037" t="s">
-        <v>1196</v>
-      </c>
+      <c r="C1037" s="1"/>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B1038" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C1038" t="s">
         <v>1194</v>
       </c>
+      <c r="F1038" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B1039" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C1039" t="s">
         <v>1194</v>
       </c>
-      <c r="F1039" t="s">
-        <v>1199</v>
-      </c>
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B1040" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C1040" t="s">
         <v>1194</v>
       </c>
+      <c r="F1040" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B1041" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C1041" t="s">
         <v>1194</v>
@@ -22335,10 +22347,10 @@
     </row>
     <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B1042" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C1042" t="s">
         <v>1194</v>
@@ -22346,10 +22358,10 @@
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B1043" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C1043" t="s">
         <v>1194</v>
@@ -22357,10 +22369,10 @@
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B1044" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C1044" t="s">
         <v>1194</v>
@@ -22368,77 +22380,77 @@
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B1045" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C1045" t="s">
         <v>1194</v>
       </c>
-      <c r="E1045" t="s">
-        <v>1206</v>
-      </c>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B1046" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C1046" t="s">
         <v>1194</v>
       </c>
       <c r="E1046" t="s">
-        <v>1197</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B1047" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C1047" t="s">
         <v>1194</v>
       </c>
+      <c r="E1047" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B1048" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C1048" t="s">
         <v>1194</v>
       </c>
-      <c r="D1048" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E1048" t="s">
-        <v>1206</v>
-      </c>
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B1049" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C1049" t="s">
         <v>1194</v>
       </c>
+      <c r="D1049" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B1050" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C1050" t="s">
         <v>1194</v>
@@ -22446,41 +22458,41 @@
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B1051" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C1051" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="1052" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
         <v>2714</v>
       </c>
-      <c r="B1052" s="1" t="s">
+      <c r="B1053" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C1052" s="1"/>
-    </row>
-    <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1053" t="s">
-        <v>2715</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>1213</v>
-      </c>
+      <c r="C1053" s="1"/>
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B1054" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C1054" t="s">
         <v>1213</v>
@@ -22488,10 +22500,10 @@
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B1055" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1055" t="s">
         <v>1213</v>
@@ -22499,10 +22511,10 @@
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B1056" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C1056" t="s">
         <v>1213</v>
@@ -22510,10 +22522,10 @@
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B1057" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C1057" t="s">
         <v>1213</v>
@@ -22521,10 +22533,10 @@
     </row>
     <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B1058" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C1058" t="s">
         <v>1213</v>
@@ -22532,49 +22544,49 @@
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B1059" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C1059" t="s">
         <v>1213</v>
       </c>
-      <c r="E1059" t="s">
-        <v>1617</v>
-      </c>
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B1060" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C1060" t="s">
         <v>1213</v>
       </c>
       <c r="E1060" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B1061" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C1061" t="s">
         <v>1213</v>
       </c>
+      <c r="E1061" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B1062" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C1062" t="s">
         <v>1213</v>
@@ -22582,24 +22594,21 @@
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1063" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C1063" t="s">
         <v>1213</v>
       </c>
-      <c r="E1063" t="s">
-        <v>1223</v>
-      </c>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B1064" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C1064" t="s">
         <v>1213</v>
@@ -22610,21 +22619,24 @@
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B1065" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C1065" t="s">
         <v>1213</v>
       </c>
+      <c r="E1065" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B1066" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C1066" t="s">
         <v>1213</v>
@@ -22632,35 +22644,35 @@
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B1067" t="s">
-        <v>71</v>
+        <v>1229</v>
       </c>
       <c r="C1067" t="s">
         <v>1213</v>
       </c>
-      <c r="E1067" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B1068" t="s">
-        <v>1230</v>
+        <v>71</v>
       </c>
       <c r="C1068" t="s">
         <v>1213</v>
       </c>
+      <c r="E1068" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B1069" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C1069" t="s">
         <v>1213</v>
@@ -22668,10 +22680,10 @@
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B1070" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C1070" t="s">
         <v>1213</v>
@@ -22679,52 +22691,52 @@
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B1071" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C1071" t="s">
         <v>1213</v>
       </c>
-      <c r="D1071" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E1071" t="s">
-        <v>1234</v>
-      </c>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B1072" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="C1072" t="s">
         <v>1213</v>
       </c>
+      <c r="D1072" t="s">
+        <v>1569</v>
+      </c>
       <c r="E1072" t="s">
-        <v>1220</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B1073" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="C1073" t="s">
         <v>1213</v>
       </c>
+      <c r="E1073" t="s">
+        <v>1220</v>
+      </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B1074" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C1074" t="s">
         <v>1213</v>
@@ -22732,10 +22744,10 @@
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B1075" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C1075" t="s">
         <v>1213</v>
@@ -22743,10 +22755,10 @@
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B1076" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C1076" t="s">
         <v>1213</v>
@@ -22754,10 +22766,10 @@
     </row>
     <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B1077" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C1077" t="s">
         <v>1213</v>
@@ -22765,10 +22777,10 @@
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B1078" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C1078" t="s">
         <v>1213</v>
@@ -22776,10 +22788,10 @@
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B1079" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C1079" t="s">
         <v>1213</v>
@@ -22787,10 +22799,10 @@
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B1080" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C1080" t="s">
         <v>1213</v>
@@ -22798,35 +22810,35 @@
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B1081" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C1081" t="s">
         <v>1213</v>
       </c>
-      <c r="D1081" t="s">
-        <v>1244</v>
-      </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1082" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C1082" t="s">
         <v>1213</v>
       </c>
+      <c r="D1082" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B1083" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C1083" t="s">
         <v>1213</v>
@@ -22834,66 +22846,66 @@
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B1084" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C1084" t="s">
         <v>1213</v>
       </c>
-      <c r="D1084" t="s">
-        <v>1248</v>
-      </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B1085" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C1085" t="s">
         <v>1213</v>
       </c>
+      <c r="D1085" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B1086" t="s">
-        <v>1221</v>
+        <v>1249</v>
       </c>
       <c r="C1086" t="s">
         <v>1213</v>
       </c>
-      <c r="D1086" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E1086" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F1086" t="s">
-        <v>1251</v>
-      </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B1087" t="s">
-        <v>1252</v>
+        <v>1221</v>
       </c>
       <c r="C1087" t="s">
         <v>1213</v>
       </c>
+      <c r="D1087" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B1088" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C1088" t="s">
         <v>1213</v>
@@ -22901,10 +22913,10 @@
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B1089" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C1089" t="s">
         <v>1213</v>
@@ -22912,10 +22924,10 @@
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B1090" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C1090" t="s">
         <v>1213</v>
@@ -22923,10 +22935,10 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B1091" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1091" t="s">
         <v>1213</v>
@@ -22934,10 +22946,10 @@
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B1092" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1092" t="s">
         <v>1213</v>
@@ -22945,10 +22957,10 @@
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B1093" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1093" t="s">
         <v>1213</v>
@@ -22956,10 +22968,10 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B1094" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1094" t="s">
         <v>1213</v>
@@ -22967,10 +22979,10 @@
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B1095" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1095" t="s">
         <v>1213</v>
@@ -22978,113 +22990,113 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B1096" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1096" t="s">
         <v>1213</v>
       </c>
-      <c r="E1096" t="s">
-        <v>1619</v>
-      </c>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="B1097" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C1097" t="s">
         <v>1213</v>
       </c>
+      <c r="E1097" t="s">
+        <v>1619</v>
+      </c>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B1098" t="s">
-        <v>1234</v>
+        <v>1263</v>
       </c>
       <c r="C1098" t="s">
         <v>1213</v>
       </c>
-      <c r="E1098" t="s">
-        <v>1233</v>
-      </c>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B1099" t="s">
-        <v>1262</v>
+        <v>1234</v>
       </c>
       <c r="C1099" t="s">
         <v>1213</v>
       </c>
       <c r="E1099" t="s">
-        <v>1223</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B1100" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C1100" t="s">
         <v>1213</v>
       </c>
       <c r="E1100" t="s">
-        <v>1620</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B1101" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C1101" t="s">
         <v>1213</v>
       </c>
+      <c r="E1101" t="s">
+        <v>1620</v>
+      </c>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B1102" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C1102" t="s">
         <v>1213</v>
       </c>
-      <c r="D1102" t="s">
-        <v>1269</v>
-      </c>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B1103" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C1103" t="s">
         <v>1213</v>
       </c>
+      <c r="D1103" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B1104" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C1104" t="s">
         <v>1213</v>
@@ -23092,10 +23104,10 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B1105" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C1105" t="s">
         <v>1213</v>
@@ -23103,49 +23115,49 @@
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B1106" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C1106" t="s">
         <v>1213</v>
       </c>
-      <c r="D1106" t="s">
-        <v>1274</v>
-      </c>
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B1107" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C1107" t="s">
         <v>1213</v>
       </c>
       <c r="D1107" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B1108" t="s">
-        <v>1564</v>
+        <v>1275</v>
       </c>
       <c r="C1108" t="s">
         <v>1213</v>
       </c>
+      <c r="D1108" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B1109" t="s">
-        <v>1277</v>
+        <v>1564</v>
       </c>
       <c r="C1109" t="s">
         <v>1213</v>
@@ -23153,10 +23165,10 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B1110" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C1110" t="s">
         <v>1213</v>
@@ -23164,10 +23176,10 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B1111" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C1111" t="s">
         <v>1213</v>
@@ -23175,10 +23187,10 @@
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="B1112" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
       <c r="C1112" t="s">
         <v>1213</v>
@@ -23186,10 +23198,10 @@
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B1113" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="C1113" t="s">
         <v>1213</v>
@@ -23197,10 +23209,10 @@
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B1114" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C1114" t="s">
         <v>1213</v>
@@ -23208,35 +23220,35 @@
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B1115" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C1115" t="s">
         <v>1213</v>
       </c>
-      <c r="E1115" t="s">
-        <v>1233</v>
-      </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B1116" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C1116" t="s">
         <v>1213</v>
       </c>
+      <c r="E1116" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B1117" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C1117" t="s">
         <v>1213</v>
@@ -23244,10 +23256,10 @@
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B1118" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C1118" t="s">
         <v>1213</v>
@@ -23255,10 +23267,10 @@
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B1119" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C1119" t="s">
         <v>1213</v>
@@ -23266,10 +23278,10 @@
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B1120" t="s">
-        <v>1265</v>
+        <v>1286</v>
       </c>
       <c r="C1120" t="s">
         <v>1213</v>
@@ -23277,44 +23289,44 @@
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B1121" t="s">
-        <v>1287</v>
+        <v>1265</v>
       </c>
       <c r="C1121" t="s">
         <v>1213</v>
       </c>
-      <c r="E1121" t="s">
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E1122" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="1122" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1122" t="s">
+    <row r="1123" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
         <v>2784</v>
       </c>
-      <c r="B1122" s="1" t="s">
+      <c r="B1123" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="C1122" s="1"/>
-    </row>
-    <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1123" t="s">
-        <v>2785</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C1123" t="s">
-        <v>1288</v>
-      </c>
+      <c r="C1123" s="1"/>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B1124" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1124" t="s">
         <v>1288</v>
@@ -23322,10 +23334,10 @@
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B1125" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1125" t="s">
         <v>1288</v>
@@ -23333,74 +23345,74 @@
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1126" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C1126" t="s">
         <v>1288</v>
       </c>
-      <c r="E1126" t="s">
-        <v>1293</v>
-      </c>
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B1127" s="3" t="s">
-        <v>1294</v>
+        <v>2788</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1292</v>
       </c>
       <c r="C1127" t="s">
         <v>1288</v>
       </c>
+      <c r="E1127" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>2790</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1295</v>
+        <v>2789</v>
+      </c>
+      <c r="B1128" s="3" t="s">
+        <v>1294</v>
       </c>
       <c r="C1128" t="s">
         <v>1288</v>
       </c>
-      <c r="E1128" t="s">
-        <v>1296</v>
-      </c>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B1129" t="s">
-        <v>683</v>
+        <v>1295</v>
       </c>
       <c r="C1129" t="s">
         <v>1288</v>
       </c>
       <c r="E1129" t="s">
-        <v>1621</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B1130" t="s">
-        <v>1298</v>
+        <v>683</v>
       </c>
       <c r="C1130" t="s">
         <v>1288</v>
       </c>
+      <c r="E1130" t="s">
+        <v>1621</v>
+      </c>
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B1131" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C1131" t="s">
         <v>1288</v>
@@ -23408,10 +23420,10 @@
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1132" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C1132" t="s">
         <v>1288</v>
@@ -23419,10 +23431,10 @@
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B1133" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C1133" t="s">
         <v>1288</v>
@@ -23430,10 +23442,10 @@
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B1134" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C1134" t="s">
         <v>1288</v>
@@ -23441,206 +23453,206 @@
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B1135" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="C1135" t="s">
         <v>1288</v>
       </c>
-      <c r="D1135" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E1135" t="s">
-        <v>1295</v>
-      </c>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B1136" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="C1136" t="s">
         <v>1288</v>
       </c>
+      <c r="D1136" t="s">
+        <v>1303</v>
+      </c>
       <c r="E1136" t="s">
-        <v>1622</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B1137" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C1137" t="s">
         <v>1288</v>
       </c>
-      <c r="D1137" t="s">
-        <v>1307</v>
-      </c>
       <c r="E1137" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B1138" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C1138" t="s">
         <v>1288</v>
       </c>
+      <c r="D1138" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>1623</v>
+      </c>
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B1139" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C1139" t="s">
         <v>1288</v>
       </c>
-      <c r="D1139" t="s">
-        <v>1312</v>
-      </c>
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B1140" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C1140" t="s">
         <v>1288</v>
       </c>
-      <c r="E1140" t="s">
-        <v>1624</v>
+      <c r="D1140" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B1141" t="s">
-        <v>1000</v>
+        <v>1313</v>
       </c>
       <c r="C1141" t="s">
         <v>1288</v>
       </c>
       <c r="E1141" t="s">
-        <v>999</v>
-      </c>
-      <c r="G1141" t="s">
-        <v>72</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B1142" t="s">
-        <v>1061</v>
+        <v>1000</v>
       </c>
       <c r="C1142" t="s">
         <v>1288</v>
       </c>
       <c r="E1142" t="s">
-        <v>1625</v>
+        <v>999</v>
+      </c>
+      <c r="G1142" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B1143" t="s">
-        <v>1316</v>
+        <v>1061</v>
       </c>
       <c r="C1143" t="s">
         <v>1288</v>
       </c>
+      <c r="E1143" t="s">
+        <v>1625</v>
+      </c>
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B1144" t="s">
-        <v>1309</v>
+        <v>1316</v>
       </c>
       <c r="C1144" t="s">
         <v>1288</v>
       </c>
-      <c r="E1144" t="s">
-        <v>1626</v>
-      </c>
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B1145" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="C1145" t="s">
         <v>1288</v>
       </c>
-      <c r="D1145" t="s">
-        <v>1317</v>
-      </c>
       <c r="E1145" t="s">
-        <v>69</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B1146" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C1146" t="s">
         <v>1288</v>
       </c>
+      <c r="D1146" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B1147" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C1147" t="s">
         <v>1288</v>
       </c>
-      <c r="E1147" t="s">
-        <v>1321</v>
-      </c>
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B1148" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C1148" t="s">
         <v>1288</v>
       </c>
+      <c r="E1148" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B1149" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C1149" t="s">
         <v>1288</v>
@@ -23648,10 +23660,10 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B1150" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C1150" t="s">
         <v>1288</v>
@@ -23659,52 +23671,52 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1151" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="C1151" t="s">
         <v>1288</v>
       </c>
-      <c r="D1151" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E1151" t="s">
-        <v>1320</v>
-      </c>
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B1152" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C1152" t="s">
         <v>1288</v>
       </c>
+      <c r="D1152" t="s">
+        <v>1333</v>
+      </c>
       <c r="E1152" t="s">
-        <v>453</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B1153" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C1153" t="s">
         <v>1288</v>
       </c>
+      <c r="E1153" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B1154" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C1154" t="s">
         <v>1288</v>
@@ -23712,186 +23724,186 @@
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B1155" t="s">
-        <v>1314</v>
+        <v>1327</v>
       </c>
       <c r="C1155" t="s">
         <v>1288</v>
       </c>
-      <c r="E1155" t="s">
-        <v>1627</v>
-      </c>
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B1156" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
       <c r="C1156" t="s">
         <v>1288</v>
       </c>
       <c r="E1156" t="s">
-        <v>1329</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1157" t="s">
-        <v>1100</v>
+        <v>1328</v>
       </c>
       <c r="C1157" t="s">
         <v>1288</v>
       </c>
-      <c r="D1157" t="s">
-        <v>1330</v>
+      <c r="E1157" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B1158" t="s">
-        <v>1293</v>
+        <v>1100</v>
       </c>
       <c r="C1158" t="s">
         <v>1288</v>
       </c>
-      <c r="E1158" t="s">
-        <v>1628</v>
+      <c r="D1158" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1159" t="s">
-        <v>1331</v>
+        <v>1293</v>
       </c>
       <c r="C1159" t="s">
         <v>1288</v>
       </c>
       <c r="E1159" t="s">
-        <v>1332</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1160" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C1160" t="s">
         <v>1288</v>
       </c>
       <c r="E1160" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B1161" t="s">
-        <v>1315</v>
+        <v>1332</v>
       </c>
       <c r="C1161" t="s">
         <v>1288</v>
       </c>
-      <c r="D1161" t="s">
-        <v>1334</v>
-      </c>
       <c r="E1161" t="s">
-        <v>1629</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B1162" t="s">
-        <v>1297</v>
+        <v>1315</v>
       </c>
       <c r="C1162" t="s">
         <v>1288</v>
       </c>
+      <c r="D1162" t="s">
+        <v>1334</v>
+      </c>
       <c r="E1162" t="s">
-        <v>683</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B1163" t="s">
-        <v>1335</v>
+        <v>1297</v>
       </c>
       <c r="C1163" t="s">
         <v>1288</v>
       </c>
+      <c r="E1163" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B1164" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="C1164" t="s">
         <v>1288</v>
       </c>
-      <c r="E1164" t="s">
-        <v>1328</v>
-      </c>
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B1165" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="C1165" t="s">
         <v>1288</v>
       </c>
+      <c r="E1165" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B1166" t="s">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="C1166" t="s">
         <v>1288</v>
       </c>
-      <c r="E1166" t="s">
-        <v>1304</v>
-      </c>
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B1167" t="s">
-        <v>1337</v>
+        <v>1305</v>
       </c>
       <c r="C1167" t="s">
         <v>1288</v>
       </c>
+      <c r="E1167" t="s">
+        <v>1304</v>
+      </c>
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B1168" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C1168" t="s">
         <v>1288</v>
@@ -23899,44 +23911,44 @@
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B1169" t="s">
-        <v>1308</v>
+        <v>1338</v>
       </c>
       <c r="C1169" t="s">
         <v>1288</v>
       </c>
-      <c r="E1169" t="s">
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1170" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="1170" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1170" t="s">
+    <row r="1171" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
         <v>2832</v>
       </c>
-      <c r="B1170" s="1" t="s">
+      <c r="B1171" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="C1170" s="1"/>
-    </row>
-    <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1171" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C1171" t="s">
-        <v>1339</v>
-      </c>
+      <c r="C1171" s="1"/>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B1172" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C1172" t="s">
         <v>1339</v>
@@ -23944,10 +23956,10 @@
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B1173" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C1173" t="s">
         <v>1339</v>
@@ -23955,10 +23967,10 @@
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B1174" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C1174" t="s">
         <v>1339</v>
@@ -23966,94 +23978,94 @@
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B1175" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C1175" t="s">
         <v>1339</v>
       </c>
-      <c r="E1175" t="s">
-        <v>1339</v>
-      </c>
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="B1176" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C1176" t="s">
         <v>1339</v>
       </c>
       <c r="E1176" t="s">
-        <v>69</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="B1177" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C1177" t="s">
         <v>1339</v>
       </c>
-      <c r="D1177" t="s">
-        <v>1347</v>
+      <c r="E1177" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B1178" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C1178" t="s">
         <v>1339</v>
       </c>
+      <c r="D1178" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B1179" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C1179" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="1180" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
         <v>2842</v>
       </c>
-      <c r="B1180" s="1" t="s">
+      <c r="B1181" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="C1180" s="1"/>
-    </row>
-    <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1181" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B1181" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C1181" t="s">
-        <v>1350</v>
-      </c>
+      <c r="C1181" s="1"/>
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B1182" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C1182" t="s">
         <v>1350</v>
@@ -24061,10 +24073,10 @@
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B1183" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C1183" t="s">
         <v>1350</v>
@@ -24072,10 +24084,10 @@
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B1184" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C1184" t="s">
         <v>1350</v>
@@ -24083,10 +24095,10 @@
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B1185" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C1185" t="s">
         <v>1350</v>
@@ -24094,35 +24106,35 @@
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B1186" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C1186" t="s">
         <v>1350</v>
       </c>
-      <c r="D1186" t="s">
-        <v>1356</v>
-      </c>
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B1187" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1187" t="s">
         <v>1350</v>
       </c>
+      <c r="D1187" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B1188" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C1188" t="s">
         <v>1350</v>
@@ -24130,10 +24142,10 @@
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="B1189" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C1189" t="s">
         <v>1350</v>
@@ -24141,10 +24153,10 @@
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1190" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C1190" t="s">
         <v>1350</v>
@@ -24152,10 +24164,10 @@
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1191" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C1191" t="s">
         <v>1350</v>
@@ -24163,10 +24175,10 @@
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1192" t="s">
-        <v>1558</v>
+        <v>1362</v>
       </c>
       <c r="C1192" t="s">
         <v>1350</v>
@@ -24174,10 +24186,10 @@
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1193" t="s">
-        <v>1363</v>
+        <v>1558</v>
       </c>
       <c r="C1193" t="s">
         <v>1350</v>
@@ -24185,35 +24197,35 @@
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B1194" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C1194" t="s">
         <v>1350</v>
       </c>
-      <c r="E1194" t="s">
-        <v>1365</v>
-      </c>
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1195" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C1195" t="s">
         <v>1350</v>
       </c>
+      <c r="E1195" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1196" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C1196" t="s">
         <v>1350</v>
@@ -24221,85 +24233,85 @@
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B1197" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C1197" t="s">
         <v>1350</v>
       </c>
-      <c r="E1197" t="s">
-        <v>1369</v>
-      </c>
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B1198" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C1198" t="s">
         <v>1350</v>
       </c>
+      <c r="E1198" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B1199" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C1199" t="s">
         <v>1350</v>
       </c>
-      <c r="E1199" t="s">
-        <v>1351</v>
-      </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B1200" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C1200" t="s">
         <v>1350</v>
       </c>
+      <c r="E1200" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="1201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1201" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C1201" t="s">
         <v>1350</v>
       </c>
-      <c r="D1201" t="s">
-        <v>1374</v>
-      </c>
     </row>
     <row r="1202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B1202" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C1202" t="s">
         <v>1350</v>
       </c>
+      <c r="D1202" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B1203" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C1203" t="s">
         <v>1350</v>
@@ -24307,35 +24319,35 @@
     </row>
     <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1204" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
       <c r="C1204" t="s">
         <v>1350</v>
       </c>
-      <c r="E1204" t="s">
-        <v>1368</v>
-      </c>
     </row>
     <row r="1205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1205" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="C1205" t="s">
         <v>1350</v>
       </c>
+      <c r="E1205" t="s">
+        <v>1368</v>
+      </c>
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1206" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C1206" t="s">
         <v>1350</v>
@@ -24343,10 +24355,10 @@
     </row>
     <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1207" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C1207" t="s">
         <v>1350</v>
@@ -24354,10 +24366,10 @@
     </row>
     <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1208" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C1208" t="s">
         <v>1350</v>
@@ -24365,10 +24377,10 @@
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1209" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C1209" t="s">
         <v>1350</v>
@@ -24376,10 +24388,10 @@
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1210" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C1210" t="s">
         <v>1350</v>
@@ -24387,10 +24399,10 @@
     </row>
     <row r="1211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1211" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C1211" t="s">
         <v>1350</v>
@@ -24398,10 +24410,10 @@
     </row>
     <row r="1212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1212" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C1212" t="s">
         <v>1350</v>
@@ -24409,10 +24421,10 @@
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1213" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C1213" t="s">
         <v>1350</v>
@@ -24420,10 +24432,10 @@
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1214" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C1214" t="s">
         <v>1350</v>
@@ -24431,10 +24443,10 @@
     </row>
     <row r="1215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1215" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C1215" t="s">
         <v>1350</v>
@@ -24442,10 +24454,10 @@
     </row>
     <row r="1216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B1216" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C1216" t="s">
         <v>1350</v>
@@ -24453,10 +24465,10 @@
     </row>
     <row r="1217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B1217" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C1217" t="s">
         <v>1350</v>
@@ -24464,10 +24476,10 @@
     </row>
     <row r="1218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B1218" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C1218" t="s">
         <v>1350</v>
@@ -24475,10 +24487,10 @@
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B1219" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C1219" t="s">
         <v>1350</v>
@@ -24486,66 +24498,66 @@
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B1220" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C1220" t="s">
         <v>1350</v>
       </c>
-      <c r="E1220" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B1221" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C1221" t="s">
         <v>1350</v>
       </c>
-      <c r="D1221" t="s">
-        <v>1394</v>
-      </c>
       <c r="E1221" t="s">
-        <v>1395</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B1222" t="s">
-        <v>1365</v>
+        <v>1393</v>
       </c>
       <c r="C1222" t="s">
         <v>1350</v>
       </c>
+      <c r="D1222" t="s">
+        <v>1394</v>
+      </c>
       <c r="E1222" t="s">
-        <v>1364</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B1223" t="s">
-        <v>1396</v>
+        <v>1365</v>
       </c>
       <c r="C1223" t="s">
         <v>1350</v>
       </c>
+      <c r="E1223" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B1224" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C1224" t="s">
         <v>1350</v>
@@ -24553,35 +24565,35 @@
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="B1225" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C1225" t="s">
         <v>1350</v>
       </c>
-      <c r="D1225" t="s">
-        <v>1399</v>
-      </c>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B1226" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C1226" t="s">
         <v>1350</v>
       </c>
+      <c r="D1226" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B1227" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C1227" t="s">
         <v>1350</v>
@@ -24589,10 +24601,10 @@
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B1228" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C1228" t="s">
         <v>1350</v>
@@ -24600,10 +24612,10 @@
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B1229" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C1229" t="s">
         <v>1350</v>
@@ -24611,10 +24623,10 @@
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B1230" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C1230" t="s">
         <v>1350</v>
@@ -24622,10 +24634,10 @@
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B1231" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C1231" t="s">
         <v>1350</v>
@@ -24633,10 +24645,10 @@
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B1232" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C1232" t="s">
         <v>1350</v>
@@ -24644,10 +24656,10 @@
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B1233" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C1233" t="s">
         <v>1350</v>
@@ -24655,10 +24667,10 @@
     </row>
     <row r="1234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B1234" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C1234" t="s">
         <v>1350</v>
@@ -24666,10 +24678,10 @@
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B1235" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C1235" t="s">
         <v>1350</v>
@@ -24677,10 +24689,10 @@
     </row>
     <row r="1236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B1236" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C1236" t="s">
         <v>1350</v>
@@ -24688,10 +24700,10 @@
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B1237" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C1237" t="s">
         <v>1350</v>
@@ -24699,35 +24711,35 @@
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B1238" t="s">
-        <v>1395</v>
+        <v>1411</v>
       </c>
       <c r="C1238" t="s">
         <v>1350</v>
       </c>
-      <c r="E1238" t="s">
-        <v>1393</v>
-      </c>
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B1239" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
       <c r="C1239" t="s">
         <v>1350</v>
       </c>
+      <c r="E1239" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B1240" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C1240" t="s">
         <v>1350</v>
@@ -24735,35 +24747,35 @@
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B1241" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C1241" t="s">
         <v>1350</v>
       </c>
-      <c r="D1241" t="s">
-        <v>1415</v>
-      </c>
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B1242" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C1242" t="s">
         <v>1350</v>
       </c>
+      <c r="D1242" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B1243" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C1243" t="s">
         <v>1350</v>
@@ -24771,66 +24783,66 @@
     </row>
     <row r="1244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B1244" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C1244" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="1245" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
         <v>2907</v>
       </c>
-      <c r="B1245" s="1" t="s">
+      <c r="B1246" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="C1245" s="1"/>
-    </row>
-    <row r="1246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1246" t="s">
-        <v>2908</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C1246" t="s">
-        <v>1419</v>
-      </c>
+      <c r="C1246" s="1"/>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B1247" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C1247" t="s">
         <v>1419</v>
       </c>
-      <c r="E1247" t="s">
-        <v>1422</v>
-      </c>
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B1248" t="s">
-        <v>332</v>
+        <v>1421</v>
       </c>
       <c r="C1248" t="s">
         <v>1419</v>
       </c>
+      <c r="E1248" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B1249" t="s">
-        <v>1423</v>
+        <v>332</v>
       </c>
       <c r="C1249" t="s">
         <v>1419</v>
@@ -24838,10 +24850,10 @@
     </row>
     <row r="1250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B1250" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C1250" t="s">
         <v>1419</v>
@@ -24849,10 +24861,10 @@
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B1251" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C1251" t="s">
         <v>1419</v>
@@ -24860,10 +24872,10 @@
     </row>
     <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B1252" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C1252" t="s">
         <v>1419</v>
@@ -24871,10 +24883,10 @@
     </row>
     <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B1253" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C1253" t="s">
         <v>1419</v>
@@ -24882,10 +24894,10 @@
     </row>
     <row r="1254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B1254" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C1254" t="s">
         <v>1419</v>
@@ -24893,35 +24905,35 @@
     </row>
     <row r="1255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B1255" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C1255" t="s">
         <v>1419</v>
       </c>
-      <c r="D1255" t="s">
-        <v>1429</v>
-      </c>
     </row>
     <row r="1256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B1256" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C1256" t="s">
         <v>1419</v>
       </c>
+      <c r="D1256" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B1257" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C1257" t="s">
         <v>1419</v>
@@ -24929,10 +24941,10 @@
     </row>
     <row r="1258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B1258" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C1258" t="s">
         <v>1419</v>
@@ -24940,10 +24952,10 @@
     </row>
     <row r="1259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B1259" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C1259" t="s">
         <v>1419</v>
@@ -24951,69 +24963,69 @@
     </row>
     <row r="1260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B1260" t="s">
-        <v>1422</v>
+        <v>1434</v>
       </c>
       <c r="C1260" t="s">
         <v>1419</v>
       </c>
-      <c r="E1260" t="s">
-        <v>1421</v>
-      </c>
     </row>
     <row r="1261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B1261" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="C1261" t="s">
         <v>1419</v>
       </c>
+      <c r="E1261" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="1262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B1262" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C1262" t="s">
         <v>1419</v>
       </c>
-      <c r="D1262" t="s">
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D1263" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1263" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1263" t="s">
+    <row r="1264" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
         <v>2925</v>
       </c>
-      <c r="B1263" s="1" t="s">
+      <c r="B1264" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="C1263" s="1"/>
-    </row>
-    <row r="1264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1264" t="s">
-        <v>2926</v>
-      </c>
-      <c r="B1264" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C1264" t="s">
-        <v>1438</v>
-      </c>
+      <c r="C1264" s="1"/>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B1265" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C1265" t="s">
         <v>1438</v>
@@ -25021,10 +25033,10 @@
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B1266" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C1266" t="s">
         <v>1438</v>
@@ -25032,10 +25044,10 @@
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B1267" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C1267" t="s">
         <v>1438</v>
@@ -25043,10 +25055,10 @@
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B1268" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C1268" t="s">
         <v>1438</v>
@@ -25054,10 +25066,10 @@
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B1269" t="s">
-        <v>1559</v>
+        <v>1443</v>
       </c>
       <c r="C1269" t="s">
         <v>1438</v>
@@ -25065,10 +25077,10 @@
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B1270" t="s">
-        <v>1444</v>
+        <v>1559</v>
       </c>
       <c r="C1270" t="s">
         <v>1438</v>
@@ -25076,10 +25088,10 @@
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B1271" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C1271" t="s">
         <v>1438</v>
@@ -25087,10 +25099,10 @@
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B1272" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C1272" t="s">
         <v>1438</v>
@@ -25098,10 +25110,10 @@
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1273" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C1273" t="s">
         <v>1438</v>
@@ -25109,10 +25121,10 @@
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B1274" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C1274" t="s">
         <v>1438</v>
@@ -25120,10 +25132,10 @@
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B1275" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C1275" t="s">
         <v>1438</v>
@@ -25131,41 +25143,41 @@
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="B1276" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C1276" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
         <v>2939</v>
       </c>
-      <c r="B1277" s="1" t="s">
+      <c r="B1278" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="C1277" s="1"/>
-    </row>
-    <row r="1278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1278" t="s">
-        <v>2940</v>
-      </c>
-      <c r="B1278" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C1278" t="s">
-        <v>1451</v>
-      </c>
+      <c r="C1278" s="1"/>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B1279" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C1279" t="s">
         <v>1451</v>
@@ -25173,10 +25185,10 @@
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B1280" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C1280" t="s">
         <v>1451</v>
@@ -25184,10 +25196,10 @@
     </row>
     <row r="1281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B1281" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C1281" t="s">
         <v>1451</v>
@@ -25195,35 +25207,35 @@
     </row>
     <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="B1282" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C1282" t="s">
         <v>1451</v>
       </c>
-      <c r="E1282" t="s">
-        <v>1457</v>
-      </c>
     </row>
     <row r="1283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B1283" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C1283" t="s">
         <v>1451</v>
       </c>
+      <c r="E1283" t="s">
+        <v>1457</v>
+      </c>
     </row>
     <row r="1284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="B1284" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C1284" t="s">
         <v>1451</v>
@@ -25231,10 +25243,10 @@
     </row>
     <row r="1285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B1285" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C1285" t="s">
         <v>1451</v>
@@ -25242,10 +25254,10 @@
     </row>
     <row r="1286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B1286" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C1286" t="s">
         <v>1451</v>
@@ -25253,10 +25265,10 @@
     </row>
     <row r="1287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B1287" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C1287" t="s">
         <v>1451</v>
@@ -25264,10 +25276,10 @@
     </row>
     <row r="1288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B1288" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C1288" t="s">
         <v>1451</v>
@@ -25275,10 +25287,10 @@
     </row>
     <row r="1289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B1289" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C1289" t="s">
         <v>1451</v>
@@ -25286,10 +25298,10 @@
     </row>
     <row r="1290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B1290" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C1290" t="s">
         <v>1451</v>
@@ -25297,10 +25309,10 @@
     </row>
     <row r="1291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B1291" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C1291" t="s">
         <v>1451</v>
@@ -25308,10 +25320,10 @@
     </row>
     <row r="1292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B1292" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C1292" t="s">
         <v>1451</v>
@@ -25319,35 +25331,35 @@
     </row>
     <row r="1293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B1293" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C1293" t="s">
         <v>1451</v>
       </c>
-      <c r="E1293" t="s">
-        <v>1469</v>
-      </c>
     </row>
     <row r="1294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B1294" t="s">
-        <v>317</v>
+        <v>1468</v>
       </c>
       <c r="C1294" t="s">
         <v>1451</v>
       </c>
+      <c r="E1294" t="s">
+        <v>1469</v>
+      </c>
     </row>
     <row r="1295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B1295" t="s">
-        <v>1470</v>
+        <v>317</v>
       </c>
       <c r="C1295" t="s">
         <v>1451</v>
@@ -25355,10 +25367,10 @@
     </row>
     <row r="1296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B1296" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C1296" t="s">
         <v>1451</v>
@@ -25366,122 +25378,122 @@
     </row>
     <row r="1297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B1297" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C1297" t="s">
         <v>1451</v>
       </c>
-      <c r="E1297" t="s">
-        <v>1456</v>
-      </c>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B1298" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C1298" t="s">
         <v>1451</v>
       </c>
+      <c r="E1298" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B1299" t="s">
-        <v>1457</v>
+        <v>1473</v>
       </c>
       <c r="C1299" t="s">
         <v>1451</v>
       </c>
-      <c r="E1299" t="s">
-        <v>1456</v>
-      </c>
     </row>
     <row r="1300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B1300" t="s">
-        <v>1474</v>
+        <v>1457</v>
       </c>
       <c r="C1300" t="s">
         <v>1451</v>
       </c>
       <c r="E1300" t="s">
-        <v>1475</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B1301" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="C1301" t="s">
         <v>1451</v>
       </c>
       <c r="E1301" t="s">
-        <v>1468</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B1302" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="C1302" t="s">
         <v>1451</v>
       </c>
       <c r="E1302" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B1303" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C1303" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="1304" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E1303" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
         <v>2966</v>
       </c>
-      <c r="B1304" s="1" t="s">
+      <c r="B1305" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="C1304" s="1"/>
-    </row>
-    <row r="1305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1305" t="s">
-        <v>2967</v>
-      </c>
-      <c r="B1305" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C1305" t="s">
-        <v>1477</v>
-      </c>
+      <c r="C1305" s="1"/>
     </row>
     <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B1306" t="s">
-        <v>1098</v>
+        <v>1478</v>
       </c>
       <c r="C1306" t="s">
         <v>1477</v>
@@ -25489,66 +25501,66 @@
     </row>
     <row r="1307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B1307" t="s">
-        <v>1479</v>
+        <v>1098</v>
       </c>
       <c r="C1307" t="s">
         <v>1477</v>
       </c>
-      <c r="E1307" t="s">
-        <v>1480</v>
-      </c>
     </row>
     <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B1308" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C1308" t="s">
         <v>1477</v>
       </c>
       <c r="E1308" t="s">
-        <v>1098</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B1309" t="s">
-        <v>885</v>
+        <v>1481</v>
       </c>
       <c r="C1309" t="s">
         <v>1477</v>
       </c>
-      <c r="D1309" t="s">
-        <v>1482</v>
-      </c>
       <c r="E1309" t="s">
-        <v>883</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B1310" t="s">
-        <v>1483</v>
+        <v>885</v>
       </c>
       <c r="C1310" t="s">
         <v>1477</v>
       </c>
+      <c r="D1310" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B1311" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C1311" t="s">
         <v>1477</v>
@@ -25556,10 +25568,10 @@
     </row>
     <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B1312" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C1312" t="s">
         <v>1477</v>
@@ -25567,10 +25579,10 @@
     </row>
     <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B1313" t="s">
-        <v>1566</v>
+        <v>1485</v>
       </c>
       <c r="C1313" t="s">
         <v>1477</v>
@@ -25578,55 +25590,55 @@
     </row>
     <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B1314" t="s">
-        <v>1480</v>
+        <v>1566</v>
       </c>
       <c r="C1314" t="s">
         <v>1477</v>
       </c>
-      <c r="E1314" t="s">
-        <v>1483</v>
-      </c>
     </row>
     <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B1315" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="C1315" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="1316" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E1315" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
         <v>2978</v>
       </c>
-      <c r="B1316" s="1" t="s">
+      <c r="B1317" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="C1316" s="1"/>
-    </row>
-    <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1317" t="s">
-        <v>2979</v>
-      </c>
-      <c r="B1317" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C1317" t="s">
-        <v>1487</v>
-      </c>
+      <c r="C1317" s="1"/>
     </row>
     <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B1318" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C1318" t="s">
         <v>1487</v>
@@ -25634,10 +25646,10 @@
     </row>
     <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B1319" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C1319" t="s">
         <v>1487</v>
@@ -25645,10 +25657,10 @@
     </row>
     <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1320" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C1320" t="s">
         <v>1487</v>
@@ -25656,10 +25668,10 @@
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B1321" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C1321" t="s">
         <v>1487</v>
@@ -25667,10 +25679,10 @@
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1322" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C1322" t="s">
         <v>1487</v>
@@ -25678,85 +25690,85 @@
     </row>
     <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B1323" t="s">
-        <v>767</v>
+        <v>1493</v>
       </c>
       <c r="C1323" t="s">
         <v>1487</v>
       </c>
-      <c r="E1323" t="s">
-        <v>765</v>
-      </c>
     </row>
     <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1324" t="s">
-        <v>1494</v>
+        <v>767</v>
       </c>
       <c r="C1324" t="s">
         <v>1487</v>
       </c>
+      <c r="E1324" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B1325" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C1325" t="s">
         <v>1487</v>
       </c>
-      <c r="D1325" t="s">
-        <v>1496</v>
-      </c>
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1326" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="C1326" t="s">
         <v>1487</v>
       </c>
+      <c r="D1326" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B1327" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C1327" t="s">
         <v>1487</v>
       </c>
-      <c r="D1327" t="s">
-        <v>1499</v>
-      </c>
     </row>
     <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1328" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C1328" t="s">
         <v>1487</v>
       </c>
+      <c r="D1328" t="s">
+        <v>1499</v>
+      </c>
     </row>
     <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B1329" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C1329" t="s">
         <v>1487</v>
@@ -25764,49 +25776,49 @@
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1330" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C1330" t="s">
         <v>1487</v>
       </c>
-      <c r="D1330" t="s">
-        <v>1503</v>
-      </c>
     </row>
     <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B1331" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C1331" t="s">
         <v>1487</v>
       </c>
       <c r="D1331" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B1332" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C1332" t="s">
         <v>1487</v>
       </c>
+      <c r="D1332" t="s">
+        <v>1505</v>
+      </c>
     </row>
     <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B1333" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C1333" t="s">
         <v>1487</v>
@@ -25814,35 +25826,35 @@
     </row>
     <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B1334" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C1334" t="s">
         <v>1487</v>
       </c>
-      <c r="E1334" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B1335" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C1335" t="s">
         <v>1487</v>
       </c>
+      <c r="E1335" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B1336" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C1336" t="s">
         <v>1487</v>
@@ -25850,10 +25862,10 @@
     </row>
     <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B1337" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C1337" t="s">
         <v>1487</v>
@@ -25861,10 +25873,10 @@
     </row>
     <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B1338" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C1338" t="s">
         <v>1487</v>
@@ -25872,10 +25884,10 @@
     </row>
     <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B1339" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C1339" t="s">
         <v>1487</v>
@@ -25883,10 +25895,10 @@
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1340" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C1340" t="s">
         <v>1487</v>
@@ -25894,41 +25906,41 @@
     </row>
     <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B1341" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C1341" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="1342" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
         <v>3004</v>
       </c>
-      <c r="B1342" s="1" t="s">
+      <c r="B1343" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="C1342" s="1"/>
-    </row>
-    <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1343" t="s">
-        <v>3005</v>
-      </c>
-      <c r="B1343" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C1343" t="s">
-        <v>1550</v>
-      </c>
+      <c r="C1343" s="1"/>
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B1344" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C1344" t="s">
         <v>1550</v>
@@ -25936,10 +25948,10 @@
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B1345" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C1345" t="s">
         <v>1550</v>
@@ -25947,10 +25959,10 @@
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B1346" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C1346" t="s">
         <v>1550</v>
@@ -25958,10 +25970,10 @@
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B1347" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C1347" t="s">
         <v>1550</v>
@@ -25969,10 +25981,10 @@
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B1348" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C1348" t="s">
         <v>1550</v>
@@ -25980,10 +25992,10 @@
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B1349" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C1349" t="s">
         <v>1550</v>
@@ -25991,10 +26003,10 @@
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B1350" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C1350" t="s">
         <v>1550</v>
@@ -26002,10 +26014,10 @@
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B1351" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C1351" t="s">
         <v>1550</v>
@@ -26013,10 +26025,10 @@
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B1352" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C1352" t="s">
         <v>1550</v>
@@ -26024,10 +26036,10 @@
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B1353" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C1353" t="s">
         <v>1550</v>
@@ -26035,10 +26047,10 @@
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B1354" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C1354" t="s">
         <v>1550</v>
@@ -26046,10 +26058,10 @@
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B1355" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C1355" t="s">
         <v>1550</v>
@@ -26057,10 +26069,10 @@
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B1356" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C1356" t="s">
         <v>1550</v>
@@ -26068,10 +26080,10 @@
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B1357" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C1357" t="s">
         <v>1550</v>
@@ -26079,10 +26091,10 @@
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B1358" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C1358" t="s">
         <v>1550</v>
@@ -26090,10 +26102,10 @@
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B1359" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C1359" t="s">
         <v>1550</v>
@@ -26101,10 +26113,10 @@
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B1360" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C1360" t="s">
         <v>1550</v>
@@ -26112,10 +26124,10 @@
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B1361" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C1361" t="s">
         <v>1550</v>
@@ -26123,10 +26135,10 @@
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B1362" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C1362" t="s">
         <v>1550</v>
@@ -26134,41 +26146,41 @@
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B1363" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C1363" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1364" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
         <v>3041</v>
       </c>
-      <c r="B1364" s="1" t="s">
+      <c r="B1365" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="C1364" s="1"/>
-    </row>
-    <row r="1365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1365" t="s">
-        <v>3026</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C1365" t="s">
-        <v>1551</v>
-      </c>
+      <c r="C1365" s="1"/>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="B1366" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C1366" t="s">
         <v>1551</v>
@@ -26176,10 +26188,10 @@
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B1367" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C1367" t="s">
         <v>1551</v>
@@ -26187,10 +26199,10 @@
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B1368" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C1368" t="s">
         <v>1551</v>
@@ -26198,10 +26210,10 @@
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B1369" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C1369" t="s">
         <v>1551</v>
@@ -26209,10 +26221,10 @@
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B1370" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C1370" t="s">
         <v>1551</v>
@@ -26220,10 +26232,10 @@
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B1371" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C1371" t="s">
         <v>1551</v>
@@ -26231,10 +26243,10 @@
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B1372" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C1372" t="s">
         <v>1551</v>
@@ -26242,10 +26254,10 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B1373" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C1373" t="s">
         <v>1551</v>
@@ -26253,10 +26265,10 @@
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B1374" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C1374" t="s">
         <v>1551</v>
@@ -26264,10 +26276,10 @@
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B1375" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C1375" t="s">
         <v>1551</v>
@@ -26275,10 +26287,10 @@
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B1376" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C1376" t="s">
         <v>1551</v>
@@ -26286,17 +26298,28 @@
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B1377" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C1377" t="s">
         <v>1551</v>
       </c>
     </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>1551</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1377" xr:uid="{8ED62B36-94AF-478D-B8D6-4D1FCA72CA24}"/>
+  <autoFilter ref="A1:G1378" xr:uid="{8ED62B36-94AF-478D-B8D6-4D1FCA72CA24}"/>
   <hyperlinks>
     <hyperlink ref="G588" r:id="rId1" xr:uid="{04F148F3-E156-4931-ACD5-B20A7E7BDB21}"/>
     <hyperlink ref="G326" r:id="rId2" xr:uid="{7F91C330-9F4D-466A-9D0A-E22D93395FA8}"/>
@@ -26310,7 +26333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E92F3D-6A46-4853-BF96-D7DA551906FD}">
   <dimension ref="A1:G1382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -27002,6 +27025,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="6fffc368-2bf1-4b0d-b1b9-70dd7dd20a26">
@@ -27025,15 +27057,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB86D2E-9309-4157-94EC-87BC40F81B9E}">
   <ds:schemaRefs>
@@ -27054,6 +27077,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF79B14-FC28-41CB-993F-0E5FAE3CA977}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8F3A3B-7903-49F7-9813-DD46116F01C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -27061,12 +27092,4 @@
     <ds:schemaRef ds:uri="6fffc368-2bf1-4b0d-b1b9-70dd7dd20a26"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF79B14-FC28-41CB-993F-0E5FAE3CA977}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CTI.xlsx
+++ b/CTI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\Subject Headings\Children's Theme Index\GitHub\CTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D92B1-3C19-47AF-A547-CA487FE8F5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E735DFF2-CB5D-47E7-B91D-4925031A3320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EFCC635C-F9A6-442E-B628-876A5964CC75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFCC635C-F9A6-442E-B628-876A5964CC75}"/>
   </bookViews>
   <sheets>
     <sheet name="Topical" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="3048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="3049">
   <si>
     <t>USE FOR</t>
   </si>
@@ -9174,6 +9174,9 @@
   </si>
   <si>
     <t>CTIform00028</t>
+  </si>
+  <si>
+    <t>Attempted murder</t>
   </si>
 </sst>
 </file>
@@ -9562,9 +9565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729BB61C-91EA-4AAA-AF5F-904D4BA3CE5F}">
   <dimension ref="A1:G1377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1170" sqref="D1170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23918,6 +23921,9 @@
       </c>
       <c r="C1169" t="s">
         <v>1287</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>3048</v>
       </c>
       <c r="E1169" t="s">
         <v>1629</v>
@@ -26322,7 +26328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E92F3D-6A46-4853-BF96-D7DA551906FD}">
   <dimension ref="A1:G1382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -27022,6 +27028,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="6fffc368-2bf1-4b0d-b1b9-70dd7dd20a26">
@@ -27045,15 +27060,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB86D2E-9309-4157-94EC-87BC40F81B9E}">
   <ds:schemaRefs>
@@ -27074,6 +27080,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF79B14-FC28-41CB-993F-0E5FAE3CA977}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8F3A3B-7903-49F7-9813-DD46116F01C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -27081,12 +27095,4 @@
     <ds:schemaRef ds:uri="6fffc368-2bf1-4b0d-b1b9-70dd7dd20a26"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF79B14-FC28-41CB-993F-0E5FAE3CA977}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>